--- a/data/THT.xlsx
+++ b/data/THT.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>THT</t>
@@ -27509,7 +27509,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AB176"/>
+  <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27545,6 +27545,7 @@
     <col min="26" max="26" width="18.5390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="18.5390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.5390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.5390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27672,6 +27673,9 @@
       <c r="AB11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AC11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -27755,6 +27759,9 @@
       <c r="AB12" s="25" t="n">
         <v>6.486636696E9</v>
       </c>
+      <c r="AC12" s="25" t="n">
+        <v>3.168195839E9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -27838,6 +27845,9 @@
       <c r="AB13" s="25" t="n">
         <v>4.88118E8</v>
       </c>
+      <c r="AC13" s="25" t="n">
+        <v>2.84224E8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -27921,6 +27931,9 @@
       <c r="AB14" s="25" t="n">
         <v>5.998518696E9</v>
       </c>
+      <c r="AC14" s="25" t="n">
+        <v>2.883971839E9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -28004,6 +28017,9 @@
       <c r="AB15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28087,6 +28103,9 @@
       <c r="AB16" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC16" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28170,6 +28189,9 @@
       <c r="AB17" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC17" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28253,6 +28275,9 @@
       <c r="AB18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28336,6 +28361,9 @@
       <c r="AB19" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC19" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -28419,6 +28447,9 @@
       <c r="AB20" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC20" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -28502,6 +28533,9 @@
       <c r="AB21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -28585,6 +28619,9 @@
       <c r="AB22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -28668,6 +28705,9 @@
       <c r="AB23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -28751,6 +28791,9 @@
       <c r="AB24" s="25" t="n">
         <v>2.566488981E9</v>
       </c>
+      <c r="AC24" s="25" t="n">
+        <v>2.390943449E9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -28834,6 +28877,9 @@
       <c r="AB25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -28917,6 +28963,9 @@
       <c r="AB26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -29000,6 +29049,9 @@
       <c r="AB27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC27" s="25" t="n">
+        <v>1.379096605E9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -29083,6 +29135,9 @@
       <c r="AB28" s="25" t="n">
         <v>2.566488981E9</v>
       </c>
+      <c r="AC28" s="25" t="n">
+        <v>1.011846844E9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -29166,6 +29221,9 @@
       <c r="AB29" s="25" t="n">
         <v>1.194677729165E12</v>
       </c>
+      <c r="AC29" s="25" t="n">
+        <v>1.506613606119E12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -29249,6 +29307,9 @@
       <c r="AB30" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -29332,6 +29393,9 @@
       <c r="AB31" s="25" t="n">
         <v>2.4905098321E10</v>
       </c>
+      <c r="AC31" s="25" t="n">
+        <v>3.0759401379E10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -29415,6 +29479,9 @@
       <c r="AB32" s="25" t="n">
         <v>1.932042E8</v>
       </c>
+      <c r="AC32" s="25" t="n">
+        <v>9.0898E7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -29498,6 +29565,9 @@
       <c r="AB33" s="25" t="n">
         <v>7.49506057633E11</v>
       </c>
+      <c r="AC33" s="25" t="n">
+        <v>1.014134680332E12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -29581,6 +29651,9 @@
       <c r="AB34" s="25" t="n">
         <v>4.20073369011E11</v>
       </c>
+      <c r="AC34" s="25" t="n">
+        <v>4.61628626408E11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -29664,6 +29737,9 @@
       <c r="AB35" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC35" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -29747,6 +29823,9 @@
       <c r="AB36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -29830,6 +29909,9 @@
       <c r="AB37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -29913,6 +29995,9 @@
       <c r="AB38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -29996,6 +30081,9 @@
       <c r="AB39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -30079,6 +30167,9 @@
       <c r="AB40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -30162,6 +30253,9 @@
       <c r="AB41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -30245,6 +30339,9 @@
       <c r="AB42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -30328,6 +30425,9 @@
       <c r="AB43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -30411,6 +30511,9 @@
       <c r="AB44" s="25" t="n">
         <v>9.8936035436E10</v>
       </c>
+      <c r="AC44" s="25" t="n">
+        <v>9.9629024438E10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -30494,6 +30597,9 @@
       <c r="AB45" s="25" t="n">
         <v>9.8936035436E10</v>
       </c>
+      <c r="AC45" s="25" t="n">
+        <v>9.9629024438E10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -30577,6 +30683,9 @@
       <c r="AB46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -30660,6 +30769,9 @@
       <c r="AB47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -30743,6 +30855,9 @@
       <c r="AB48" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -30826,6 +30941,9 @@
       <c r="AB49" s="25" t="n">
         <v>2.577323458215E12</v>
       </c>
+      <c r="AC49" s="25" t="n">
+        <v>2.593027346855E12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -30909,6 +31027,9 @@
       <c r="AB50" s="25" t="n">
         <v>2.511335892098E12</v>
       </c>
+      <c r="AC50" s="25" t="n">
+        <v>2.511335892098E12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -30992,6 +31113,9 @@
       <c r="AB51" s="25" t="n">
         <v>7.2153820944E10</v>
       </c>
+      <c r="AC51" s="25" t="n">
+        <v>8.7857709584E10</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -31075,6 +31199,9 @@
       <c r="AB52" s="25" t="n">
         <v>-6.166254827E9</v>
       </c>
+      <c r="AC52" s="25" t="n">
+        <v>-6.166254827E9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -31158,6 +31285,9 @@
       <c r="AB53" s="25" t="n">
         <v>2.008537716084E12</v>
       </c>
+      <c r="AC53" s="25" t="n">
+        <v>2.049079491923E12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -31241,6 +31371,9 @@
       <c r="AB54" s="25" t="n">
         <v>1.933626187805E12</v>
       </c>
+      <c r="AC54" s="25" t="n">
+        <v>1.933626187805E12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -31324,6 +31457,9 @@
       <c r="AB55" s="25" t="n">
         <v>8.1017732335E10</v>
       </c>
+      <c r="AC55" s="25" t="n">
+        <v>1.21559508174E11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -31407,6 +31543,9 @@
       <c r="AB56" s="25" t="n">
         <v>-6.106204056E9</v>
       </c>
+      <c r="AC56" s="25" t="n">
+        <v>-6.106204056E9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -31490,6 +31629,9 @@
       <c r="AB57" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -31573,6 +31715,9 @@
       <c r="AB58" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -31656,6 +31801,9 @@
       <c r="AB59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -31739,6 +31887,9 @@
       <c r="AB60" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -31822,6 +31973,9 @@
       <c r="AB61" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -31905,6 +32059,9 @@
       <c r="AB62" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -31988,6 +32145,9 @@
       <c r="AB63" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -32071,6 +32231,9 @@
       <c r="AB64" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -32154,6 +32317,9 @@
       <c r="AB65" s="25" t="n">
         <v>7.89426681419E11</v>
       </c>
+      <c r="AC65" s="25" t="n">
+        <v>7.89426681419E11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -32237,6 +32403,9 @@
       <c r="AB66" s="25" t="n">
         <v>7.89426681419E11</v>
       </c>
+      <c r="AC66" s="25" t="n">
+        <v>7.89426681419E11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -32320,6 +32489,9 @@
       <c r="AB67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -32403,6 +32575,9 @@
       <c r="AB68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -32486,6 +32661,9 @@
       <c r="AB69" s="25" t="n">
         <v>7.89426681419E11</v>
       </c>
+      <c r="AC69" s="25" t="n">
+        <v>7.89426681419E11</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -32569,6 +32747,9 @@
       <c r="AB70" s="25" t="n">
         <v>7.85564868843E11</v>
       </c>
+      <c r="AC70" s="25" t="n">
+        <v>7.85564868843E11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -32652,6 +32833,9 @@
       <c r="AB71" s="25" t="n">
         <v>3.861812576E9</v>
       </c>
+      <c r="AC71" s="25" t="n">
+        <v>3.861812576E9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -32735,6 +32919,9 @@
       <c r="AB72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -32818,6 +33005,9 @@
       <c r="AB73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -32901,6 +33091,9 @@
       <c r="AB74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -32984,6 +33177,9 @@
       <c r="AB75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -33067,6 +33263,9 @@
       <c r="AB76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -33150,6 +33349,9 @@
       <c r="AB77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -33233,6 +33435,9 @@
       <c r="AB78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -33316,6 +33521,9 @@
       <c r="AB79" s="25" t="n">
         <v>3.36670752555E11</v>
       </c>
+      <c r="AC79" s="25" t="n">
+        <v>7.09356141086E11</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -33399,6 +33607,9 @@
       <c r="AB80" s="25" t="n">
         <v>2.60280401613E11</v>
       </c>
+      <c r="AC80" s="25" t="n">
+        <v>6.22049122574E11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -33482,6 +33693,9 @@
       <c r="AB81" s="25" t="n">
         <v>7.6390350942E10</v>
       </c>
+      <c r="AC81" s="25" t="n">
+        <v>8.7307018512E10</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -33565,6 +33779,9 @@
       <c r="AB82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -33648,6 +33865,9 @@
       <c r="AB83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -33731,6 +33951,9 @@
       <c r="AB84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -33814,6 +34037,9 @@
       <c r="AB85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -33897,6 +34123,9 @@
       <c r="AB86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -33980,6 +34209,9 @@
       <c r="AB87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -34063,6 +34295,9 @@
       <c r="AB88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -34146,6 +34381,9 @@
       <c r="AB89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -34229,6 +34467,9 @@
       <c r="AB90" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC90" s="25" t="n">
+        <v>2.8789715536E10</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -34312,6 +34553,9 @@
       <c r="AB91" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC91" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -34395,6 +34639,9 @@
       <c r="AB92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -34478,6 +34725,9 @@
       <c r="AB93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -34561,6 +34811,9 @@
       <c r="AB94" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC94" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -34644,6 +34897,9 @@
       <c r="AB95" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC95" s="25" t="n">
+        <v>5.0E7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -34727,6 +34983,9 @@
       <c r="AB96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC96" s="25" t="n">
+        <v>2.3176369343E10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -34810,6 +35069,9 @@
       <c r="AB97" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -34893,6 +35155,9 @@
       <c r="AB98" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -34976,6 +35241,9 @@
       <c r="AB99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC99" s="25" t="n">
+        <v>5.563346193E9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -35059,6 +35327,9 @@
       <c r="AB100" s="25" t="n">
         <v>2.23762324033E11</v>
       </c>
+      <c r="AC100" s="25" t="n">
+        <v>8.5784873176E10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -35142,6 +35413,9 @@
       <c r="AB101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -35225,6 +35499,9 @@
       <c r="AB102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -35308,6 +35585,9 @@
       <c r="AB103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -35391,6 +35671,9 @@
       <c r="AB104" s="25" t="n">
         <v>2.23762324033E11</v>
       </c>
+      <c r="AC104" s="25" t="n">
+        <v>8.5784873176E10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -35474,6 +35757,9 @@
       <c r="AB105" s="25" t="n">
         <v>4.625913283E9</v>
       </c>
+      <c r="AC105" s="25" t="n">
+        <v>4.373818305E9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -35557,6 +35843,9 @@
       <c r="AB106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -35640,6 +35929,9 @@
       <c r="AB107" s="25" t="n">
         <v>1.100758219E9</v>
       </c>
+      <c r="AC107" s="25" t="n">
+        <v>1.039713171E9</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -35723,6 +36015,9 @@
       <c r="AB108" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC108" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -35806,6 +36101,9 @@
       <c r="AB109" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC109" s="25" t="n">
+        <v>1.04230427E8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -35889,6 +36187,9 @@
       <c r="AB110" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -35972,6 +36273,9 @@
       <c r="AB111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -36055,6 +36359,9 @@
       <c r="AB112" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -36138,6 +36445,9 @@
       <c r="AB113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -36221,6 +36531,9 @@
       <c r="AB114" s="25" t="n">
         <v>3.525155064E9</v>
       </c>
+      <c r="AC114" s="25" t="n">
+        <v>3.229874707E9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -36304,6 +36617,9 @@
       <c r="AB115" s="25" t="n">
         <v>2.19106982727E11</v>
       </c>
+      <c r="AC115" s="25" t="n">
+        <v>2.0897875549E11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -36387,6 +36703,9 @@
       <c r="AB116" s="25" t="n">
         <v>2.19106982727E11</v>
       </c>
+      <c r="AC116" s="25" t="n">
+        <v>2.0897875549E11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -36470,6 +36789,9 @@
       <c r="AB117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -36553,6 +36875,9 @@
       <c r="AB118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -36636,6 +36961,9 @@
       <c r="AB119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -36719,6 +37047,9 @@
       <c r="AB120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -36802,6 +37133,9 @@
       <c r="AB121" s="25" t="n">
         <v>2.4569052E11</v>
       </c>
+      <c r="AC121" s="25" t="n">
+        <v>2.4569052E11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -36885,6 +37219,9 @@
       <c r="AB122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -36968,6 +37305,9 @@
       <c r="AB123" s="25" t="n">
         <v>2.4569052E11</v>
       </c>
+      <c r="AC123" s="25" t="n">
+        <v>2.4569052E11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -37051,6 +37391,9 @@
       <c r="AB124" s="25" t="n">
         <v>1.180056543891E12</v>
       </c>
+      <c r="AC124" s="25" t="n">
+        <v>6.7246009712E11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -37134,6 +37477,9 @@
       <c r="AB125" s="25" t="n">
         <v>1.175273803151E12</v>
       </c>
+      <c r="AC125" s="25" t="n">
+        <v>6.7093398488E11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -37217,6 +37563,9 @@
       <c r="AB126" s="25" t="n">
         <v>4.78274074E9</v>
       </c>
+      <c r="AC126" s="25" t="n">
+        <v>1.52611224E9</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -37300,6 +37649,9 @@
       <c r="AB127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -37383,6 +37735,9 @@
       <c r="AB128" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC128" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -37466,6 +37821,9 @@
       <c r="AB129" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC129" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -37549,6 +37907,9 @@
       <c r="AB130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -37632,6 +37993,9 @@
       <c r="AB131" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -37715,6 +38079,9 @@
       <c r="AB132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -37798,6 +38165,9 @@
       <c r="AB133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -37881,6 +38251,9 @@
       <c r="AB134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -37964,6 +38337,9 @@
       <c r="AB135" s="25" t="n">
         <v>1.116228031064E12</v>
       </c>
+      <c r="AC135" s="25" t="n">
+        <v>6.27968537649E11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -38047,6 +38423,9 @@
       <c r="AB136" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC136" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -38130,6 +38509,9 @@
       <c r="AB137" s="25" t="n">
         <v>1.113297575867E12</v>
       </c>
+      <c r="AC137" s="25" t="n">
+        <v>6.24532031589E11</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -38213,6 +38595,9 @@
       <c r="AB138" s="25" t="n">
         <v>2.930455197E9</v>
       </c>
+      <c r="AC138" s="25" t="n">
+        <v>3.43650606E9</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -38296,6 +38681,9 @@
       <c r="AB139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -38379,6 +38767,9 @@
       <c r="AB140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -38462,6 +38853,9 @@
       <c r="AB141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -38545,6 +38939,9 @@
       <c r="AB142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -38628,6 +39025,9 @@
       <c r="AB143" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -38711,6 +39111,9 @@
       <c r="AB144" s="25" t="n">
         <v>6.98538891E8</v>
       </c>
+      <c r="AC144" s="25" t="n">
+        <v>7.02009065E8</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -38794,6 +39197,9 @@
       <c r="AB145" s="25" t="n">
         <v>1.3082379E7</v>
       </c>
+      <c r="AC145" s="25" t="n">
+        <v>9010063.0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -38877,6 +39283,9 @@
       <c r="AB146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -38960,6 +39369,9 @@
       <c r="AB147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -39043,6 +39455,9 @@
       <c r="AB148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -39126,6 +39541,9 @@
       <c r="AB149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -39209,6 +39627,9 @@
       <c r="AB150" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC150" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -39292,6 +39713,9 @@
       <c r="AB151" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -39375,6 +39799,9 @@
       <c r="AB152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -39458,6 +39885,9 @@
       <c r="AB153" s="25" t="n">
         <v>6.85456512E8</v>
       </c>
+      <c r="AC153" s="25" t="n">
+        <v>6.92999002E8</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -39541,6 +39971,9 @@
       <c r="AB154" s="25" t="n">
         <v>8.686386362E9</v>
       </c>
+      <c r="AC154" s="25" t="n">
+        <v>1.1520170319E10</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -39624,6 +40057,9 @@
       <c r="AB155" s="25" t="n">
         <v>8.686386362E9</v>
       </c>
+      <c r="AC155" s="25" t="n">
+        <v>1.1520170319E10</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -39707,6 +40143,9 @@
       <c r="AB156" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -39790,6 +40229,9 @@
       <c r="AB157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -39873,6 +40315,9 @@
       <c r="AB158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -39956,6 +40401,9 @@
       <c r="AB159" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC159" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -40039,6 +40487,9 @@
       <c r="AB160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -40122,6 +40573,9 @@
       <c r="AB161" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -40205,6 +40659,9 @@
       <c r="AB162" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AC162" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -40288,6 +40745,9 @@
       <c r="AB163" s="25" t="n">
         <v>1.549826818411E12</v>
       </c>
+      <c r="AC163" s="25" t="n">
+        <v>9.57586225607E11</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -40371,6 +40831,9 @@
       <c r="AB164" s="25" t="n">
         <v>2.59174464476E11</v>
       </c>
+      <c r="AC164" s="25" t="n">
+        <v>2.22878024573E11</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -40454,6 +40917,9 @@
       <c r="AB165" s="25" t="n">
         <v>1.02837371125E11</v>
       </c>
+      <c r="AC165" s="25" t="n">
+        <v>8.4629811958E10</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -40537,6 +41003,9 @@
       <c r="AB166" s="25" t="n">
         <v>4.0170309758E10</v>
       </c>
+      <c r="AC166" s="25" t="n">
+        <v>4.0541775839E10</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -40620,6 +41089,9 @@
       <c r="AB167" s="25" t="n">
         <v>9.356983423E11</v>
       </c>
+      <c r="AC167" s="25" t="n">
+        <v>5.11164681138E11</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -40702,6 +41174,9 @@
       </c>
       <c r="AB168" s="25" t="n">
         <v>2.11946330752E11</v>
+      </c>
+      <c r="AC168" s="25" t="n">
+        <v>9.8371932099E10</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -40742,7 +41217,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:AB10"/>
+    <mergeCell ref="H10:AC10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/THT.xlsx
+++ b/data/THT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>THT</t>

--- a/data/THT.xlsx
+++ b/data/THT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>THT</t>

--- a/data/THT.xlsx
+++ b/data/THT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>THT</t>
